--- a/Data Input Sheets/Regional Dex Organizer.xlsx
+++ b/Data Input Sheets/Regional Dex Organizer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{3F571C76-445F-4C95-8D55-D91E087B66E9}"/>
+  <xr:revisionPtr revIDLastSave="538" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{58866DC5-FFF1-4D0A-BACA-BC5BA165295F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{C385F4AC-223B-4C41-885D-86253120A5C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
   <si>
     <t>Kanto Dex</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Sevii Dex</t>
   </si>
   <si>
-    <t>Orange Dex</t>
-  </si>
-  <si>
     <t>National Dex</t>
   </si>
   <si>
@@ -886,6 +883,237 @@
   </si>
   <si>
     <t>Zystii</t>
+  </si>
+  <si>
+    <t>Oricorio</t>
+  </si>
+  <si>
+    <t>Aegislash</t>
+  </si>
+  <si>
+    <t>Larvitar</t>
+  </si>
+  <si>
+    <t>Pupitar</t>
+  </si>
+  <si>
+    <t>Tyranitar</t>
+  </si>
+  <si>
+    <t>Salamence</t>
+  </si>
+  <si>
+    <t>Carbominable</t>
+  </si>
+  <si>
+    <t>Goodra</t>
+  </si>
+  <si>
+    <t>Altaria</t>
+  </si>
+  <si>
+    <t>Vivillion</t>
+  </si>
+  <si>
+    <t>Bagon</t>
+  </si>
+  <si>
+    <t>Shellgon</t>
+  </si>
+  <si>
+    <t>Crabrawler</t>
+  </si>
+  <si>
+    <t>Goomy</t>
+  </si>
+  <si>
+    <t>Sliggoo</t>
+  </si>
+  <si>
+    <t>Swablu</t>
+  </si>
+  <si>
+    <t>Scatterbug</t>
+  </si>
+  <si>
+    <t>Spewpa</t>
+  </si>
+  <si>
+    <t>Gumshoos</t>
+  </si>
+  <si>
+    <t>Yungoos</t>
+  </si>
+  <si>
+    <t>Mincinno</t>
+  </si>
+  <si>
+    <t>Cincinno</t>
+  </si>
+  <si>
+    <t>Honedge</t>
+  </si>
+  <si>
+    <t>Doublade</t>
+  </si>
+  <si>
+    <t>Salandit</t>
+  </si>
+  <si>
+    <t>Salazzle</t>
+  </si>
+  <si>
+    <t>Stunfisk</t>
+  </si>
+  <si>
+    <t>Drampa</t>
+  </si>
+  <si>
+    <t>Tepig</t>
+  </si>
+  <si>
+    <t>Emboar</t>
+  </si>
+  <si>
+    <t>Pignite</t>
+  </si>
+  <si>
+    <t>Magby</t>
+  </si>
+  <si>
+    <t>Charmander</t>
+  </si>
+  <si>
+    <t>Mantyke</t>
+  </si>
+  <si>
+    <t>Mantine</t>
+  </si>
+  <si>
+    <t>Petlil</t>
+  </si>
+  <si>
+    <t>Lilligant</t>
+  </si>
+  <si>
+    <t>Hopip</t>
+  </si>
+  <si>
+    <t>Skiploom</t>
+  </si>
+  <si>
+    <t>Jumpluff</t>
+  </si>
+  <si>
+    <t>Meetal</t>
+  </si>
+  <si>
+    <t>Coldear</t>
+  </si>
+  <si>
+    <t>Frozight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aron </t>
+  </si>
+  <si>
+    <t>Lairon</t>
+  </si>
+  <si>
+    <t>Aggron</t>
+  </si>
+  <si>
+    <t>Mime Jr</t>
+  </si>
+  <si>
+    <t>MrMime</t>
+  </si>
+  <si>
+    <t>Hydrid</t>
+  </si>
+  <si>
+    <t>Smeargle</t>
+  </si>
+  <si>
+    <t>Spheal</t>
+  </si>
+  <si>
+    <t>Sealeo</t>
+  </si>
+  <si>
+    <t>Walrein</t>
+  </si>
+  <si>
+    <t>Dratini</t>
+  </si>
+  <si>
+    <t>Dragonair</t>
+  </si>
+  <si>
+    <t>Dragonite</t>
+  </si>
+  <si>
+    <t>Scyther</t>
+  </si>
+  <si>
+    <t>Scizor</t>
+  </si>
+  <si>
+    <t>Pinsir</t>
+  </si>
+  <si>
+    <t>Hoennike Dex</t>
+  </si>
+  <si>
+    <t>Sinoli Dex</t>
+  </si>
+  <si>
+    <t>Unoven Dex</t>
+  </si>
+  <si>
+    <t>Kalic Dex</t>
+  </si>
+  <si>
+    <t>Alol Dex</t>
+  </si>
+  <si>
+    <t>Swinub</t>
+  </si>
+  <si>
+    <t>Piloswine</t>
+  </si>
+  <si>
+    <t>Mammoswine</t>
+  </si>
+  <si>
+    <t>Smoochum</t>
+  </si>
+  <si>
+    <t>Jynx</t>
+  </si>
+  <si>
+    <t>Bodanxious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonsly </t>
+  </si>
+  <si>
+    <t>Sudowoodo</t>
+  </si>
+  <si>
+    <t>Vileplume</t>
+  </si>
+  <si>
+    <t>Victreebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubone </t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472BF42-91E4-4AAA-87AC-3A048804E40E}">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,12 +1476,17 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1265,1422 +1498,2144 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="D172" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="D173" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="D174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="D175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="D176" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="D177" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="D178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="D179" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="D180" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+      <c r="D181" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Regional Dex Organizer.xlsx
+++ b/Data Input Sheets/Regional Dex Organizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{58866DC5-FFF1-4D0A-BACA-BC5BA165295F}"/>
+  <xr:revisionPtr revIDLastSave="939" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B5B700D5-4FA9-45BA-AB97-BCCDD1B5742D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{C385F4AC-223B-4C41-885D-86253120A5C2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="477">
   <si>
     <t>Kanto Dex</t>
   </si>
@@ -1114,6 +1114,348 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Totodile</t>
+  </si>
+  <si>
+    <t>Croconaw</t>
+  </si>
+  <si>
+    <t>Feraligatr</t>
+  </si>
+  <si>
+    <t>Zubat</t>
+  </si>
+  <si>
+    <t>Spinarak</t>
+  </si>
+  <si>
+    <t>Ariados</t>
+  </si>
+  <si>
+    <t>Embillar</t>
+  </si>
+  <si>
+    <t>Lavaral</t>
+  </si>
+  <si>
+    <t>Mosquamber</t>
+  </si>
+  <si>
+    <t>Bonsly</t>
+  </si>
+  <si>
+    <t>Wynaut</t>
+  </si>
+  <si>
+    <t>Wobbuffett</t>
+  </si>
+  <si>
+    <t>Delibird</t>
+  </si>
+  <si>
+    <t>Slitherm</t>
+  </si>
+  <si>
+    <t>Syvernt</t>
+  </si>
+  <si>
+    <t>Serpentia</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Bohr</t>
+  </si>
+  <si>
+    <t>Hawking</t>
+  </si>
+  <si>
+    <t>NidoranF</t>
+  </si>
+  <si>
+    <t>Nidorina</t>
+  </si>
+  <si>
+    <t>Nidoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geodude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onix </t>
+  </si>
+  <si>
+    <t>Azuril</t>
+  </si>
+  <si>
+    <t>Ledyba</t>
+  </si>
+  <si>
+    <t>Ledian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espeon </t>
+  </si>
+  <si>
+    <t>Glaceon</t>
+  </si>
+  <si>
+    <t>Teddiursa</t>
+  </si>
+  <si>
+    <t>Ursaring</t>
+  </si>
+  <si>
+    <t>Farfetch'd</t>
+  </si>
+  <si>
+    <t>Shuckle</t>
+  </si>
+  <si>
+    <t>Fukle</t>
+  </si>
+  <si>
+    <t>Cyndiquil</t>
+  </si>
+  <si>
+    <t>Quilava</t>
+  </si>
+  <si>
+    <t>Typhlosion</t>
+  </si>
+  <si>
+    <t>Chickorite</t>
+  </si>
+  <si>
+    <t>Bayleef</t>
+  </si>
+  <si>
+    <t>Meganium</t>
+  </si>
+  <si>
+    <t>Yanma</t>
+  </si>
+  <si>
+    <t>Yanmega</t>
+  </si>
+  <si>
+    <t>Mareep</t>
+  </si>
+  <si>
+    <t>Flaafy</t>
+  </si>
+  <si>
+    <t>Ampharos</t>
+  </si>
+  <si>
+    <t>Dragomite</t>
+  </si>
+  <si>
+    <t>Corsola</t>
+  </si>
+  <si>
+    <t>Victribel</t>
+  </si>
+  <si>
+    <t>Pidgeot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weedle </t>
+  </si>
+  <si>
+    <t>smoochum</t>
+  </si>
+  <si>
+    <t>Weakicle</t>
+  </si>
+  <si>
+    <t>Fragiice</t>
+  </si>
+  <si>
+    <t>Sneasal</t>
+  </si>
+  <si>
+    <t>Aron</t>
+  </si>
+  <si>
+    <t>Tyrunt</t>
+  </si>
+  <si>
+    <t>Tyrantrum</t>
+  </si>
+  <si>
+    <t>Koffing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetal </t>
+  </si>
+  <si>
+    <t>Igglybuff</t>
+  </si>
+  <si>
+    <t>Jigglybuff</t>
+  </si>
+  <si>
+    <t>Dustorm</t>
+  </si>
+  <si>
+    <t>Froakie</t>
+  </si>
+  <si>
+    <t>Frogadier</t>
+  </si>
+  <si>
+    <t>Greninja</t>
+  </si>
+  <si>
+    <t>Sentret</t>
+  </si>
+  <si>
+    <t>Furret</t>
+  </si>
+  <si>
+    <t>Hoppip</t>
+  </si>
+  <si>
+    <t>Mewostic</t>
+  </si>
+  <si>
+    <t>elekid</t>
+  </si>
+  <si>
+    <t>ekectabuzz</t>
+  </si>
+  <si>
+    <t>electivire</t>
+  </si>
+  <si>
+    <t>magby</t>
+  </si>
+  <si>
+    <t>magmar</t>
+  </si>
+  <si>
+    <t>magmortar</t>
+  </si>
+  <si>
+    <t>drowzee</t>
+  </si>
+  <si>
+    <t>hypno</t>
+  </si>
+  <si>
+    <t>ditto</t>
+  </si>
+  <si>
+    <t>sunkern</t>
+  </si>
+  <si>
+    <t>sunflora</t>
+  </si>
+  <si>
+    <t>remoraid</t>
+  </si>
+  <si>
+    <t>Octillery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gligar </t>
+  </si>
+  <si>
+    <t>Girafarig</t>
+  </si>
+  <si>
+    <t>Baboom</t>
+  </si>
+  <si>
+    <t>Spearow</t>
+  </si>
+  <si>
+    <t>Aguanaut</t>
+  </si>
+  <si>
+    <t>Snome</t>
+  </si>
+  <si>
+    <t>Snogre</t>
+  </si>
+  <si>
+    <t>Scovalope</t>
+  </si>
+  <si>
+    <t>Chlorofin</t>
+  </si>
+  <si>
+    <t>Turkistador</t>
+  </si>
+  <si>
+    <t>Phlask</t>
+  </si>
+  <si>
+    <t>Noxial</t>
+  </si>
+  <si>
+    <t>Fumighast</t>
+  </si>
+  <si>
+    <t>Orbatom</t>
+  </si>
+  <si>
+    <t>Magroplex</t>
+  </si>
+  <si>
+    <t>Roygibiv</t>
+  </si>
+  <si>
+    <t>Chillnobyl</t>
+  </si>
+  <si>
+    <t>Basilect</t>
+  </si>
+  <si>
+    <t>Diamat</t>
+  </si>
+  <si>
+    <t>Enigmantis</t>
+  </si>
+  <si>
+    <t>Hyekuza</t>
+  </si>
+  <si>
+    <t>Forthorn</t>
+  </si>
+  <si>
+    <t>Charmbra</t>
+  </si>
+  <si>
+    <t>Xochi</t>
+  </si>
+  <si>
+    <t>Xotec</t>
+  </si>
+  <si>
+    <t>Scraggy</t>
+  </si>
+  <si>
+    <t>Scrafty</t>
+  </si>
+  <si>
+    <t>Hoenn Dex</t>
+  </si>
+  <si>
+    <t>Sinnoh Dex</t>
+  </si>
+  <si>
+    <t>Unova Dex</t>
+  </si>
+  <si>
+    <t>Kalos Dex</t>
+  </si>
+  <si>
+    <t>Alolan Dex</t>
   </si>
 </sst>
 </file>
@@ -1129,12 +1471,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1149,8 +1497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,23 +1814,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472BF42-91E4-4AAA-87AC-3A048804E40E}">
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,304 +1862,433 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>317</v>
       </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>363</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>364</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>365</v>
       </c>
       <c r="D14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
       </c>
       <c r="D15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
       </c>
       <c r="D16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
       </c>
       <c r="D20" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
       </c>
       <c r="D21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
       </c>
       <c r="D26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
       </c>
       <c r="D27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
       </c>
       <c r="D28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
       </c>
       <c r="D29" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
       </c>
       <c r="D30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
       </c>
       <c r="D31" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
       </c>
       <c r="D35" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
       </c>
       <c r="D36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
       </c>
       <c r="D37" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
       </c>
       <c r="D38" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
       </c>
       <c r="D39" t="s">
         <v>323</v>
@@ -1821,6 +2298,9 @@
       <c r="B40" t="s">
         <v>42</v>
       </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
       <c r="D40" t="s">
         <v>324</v>
       </c>
@@ -1829,6 +2309,9 @@
       <c r="B41" t="s">
         <v>43</v>
       </c>
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
       <c r="D41" t="s">
         <v>325</v>
       </c>
@@ -1837,6 +2320,9 @@
       <c r="B42" t="s">
         <v>44</v>
       </c>
+      <c r="C42" t="s">
+        <v>368</v>
+      </c>
       <c r="D42" t="s">
         <v>57</v>
       </c>
@@ -1845,6 +2331,9 @@
       <c r="B43" t="s">
         <v>45</v>
       </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" t="s">
         <v>58</v>
       </c>
@@ -1853,6 +2342,9 @@
       <c r="B44" t="s">
         <v>46</v>
       </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
       <c r="D44" t="s">
         <v>59</v>
       </c>
@@ -1861,6 +2353,9 @@
       <c r="B45" t="s">
         <v>47</v>
       </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
       <c r="D45" t="s">
         <v>121</v>
       </c>
@@ -1869,6 +2364,9 @@
       <c r="B46" t="s">
         <v>48</v>
       </c>
+      <c r="C46" t="s">
+        <v>344</v>
+      </c>
       <c r="D46" t="s">
         <v>122</v>
       </c>
@@ -1877,6 +2375,9 @@
       <c r="B47" t="s">
         <v>49</v>
       </c>
+      <c r="C47" t="s">
+        <v>342</v>
+      </c>
       <c r="D47" t="s">
         <v>132</v>
       </c>
@@ -1885,6 +2386,9 @@
       <c r="B48" t="s">
         <v>50</v>
       </c>
+      <c r="C48" t="s">
+        <v>343</v>
+      </c>
       <c r="D48" t="s">
         <v>133</v>
       </c>
@@ -1893,6 +2397,9 @@
       <c r="B49" t="s">
         <v>51</v>
       </c>
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
       <c r="D49" t="s">
         <v>326</v>
       </c>
@@ -1901,6 +2408,9 @@
       <c r="B50" t="s">
         <v>52</v>
       </c>
+      <c r="C50" t="s">
+        <v>370</v>
+      </c>
       <c r="D50" t="s">
         <v>327</v>
       </c>
@@ -1909,6 +2419,9 @@
       <c r="B51" t="s">
         <v>53</v>
       </c>
+      <c r="C51" t="s">
+        <v>371</v>
+      </c>
       <c r="D51" t="s">
         <v>328</v>
       </c>
@@ -1917,6 +2430,9 @@
       <c r="B52" t="s">
         <v>54</v>
       </c>
+      <c r="C52" t="s">
+        <v>237</v>
+      </c>
       <c r="D52" t="s">
         <v>329</v>
       </c>
@@ -1925,6 +2441,9 @@
       <c r="B53" t="s">
         <v>55</v>
       </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
       <c r="D53" t="s">
         <v>330</v>
       </c>
@@ -1933,6 +2452,9 @@
       <c r="B54" t="s">
         <v>56</v>
       </c>
+      <c r="C54" t="s">
+        <v>372</v>
+      </c>
       <c r="D54" t="s">
         <v>331</v>
       </c>
@@ -1941,6 +2463,9 @@
       <c r="B55" t="s">
         <v>57</v>
       </c>
+      <c r="C55" t="s">
+        <v>358</v>
+      </c>
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -1949,6 +2474,9 @@
       <c r="B56" t="s">
         <v>58</v>
       </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
       <c r="D56" t="s">
         <v>46</v>
       </c>
@@ -1957,6 +2485,9 @@
       <c r="B57" t="s">
         <v>59</v>
       </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
       <c r="D57" t="s">
         <v>269</v>
       </c>
@@ -1965,6 +2496,9 @@
       <c r="B58" t="s">
         <v>60</v>
       </c>
+      <c r="C58" t="s">
+        <v>359</v>
+      </c>
       <c r="D58" t="s">
         <v>223</v>
       </c>
@@ -1973,6 +2507,9 @@
       <c r="B59" t="s">
         <v>61</v>
       </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
       <c r="D59" t="s">
         <v>224</v>
       </c>
@@ -1981,6 +2518,9 @@
       <c r="B60" t="s">
         <v>62</v>
       </c>
+      <c r="C60" t="s">
+        <v>374</v>
+      </c>
       <c r="D60" t="s">
         <v>225</v>
       </c>
@@ -1989,6 +2529,9 @@
       <c r="B61" t="s">
         <v>63</v>
       </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
       <c r="D61" t="s">
         <v>332</v>
       </c>
@@ -1997,6 +2540,9 @@
       <c r="B62" t="s">
         <v>64</v>
       </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
       <c r="D62" t="s">
         <v>333</v>
       </c>
@@ -2005,6 +2551,9 @@
       <c r="B63" t="s">
         <v>65</v>
       </c>
+      <c r="C63" t="s">
+        <v>375</v>
+      </c>
       <c r="D63" t="s">
         <v>204</v>
       </c>
@@ -2013,6 +2562,9 @@
       <c r="B64" t="s">
         <v>66</v>
       </c>
+      <c r="C64" t="s">
+        <v>376</v>
+      </c>
       <c r="D64" t="s">
         <v>205</v>
       </c>
@@ -2021,6 +2573,9 @@
       <c r="B65" t="s">
         <v>67</v>
       </c>
+      <c r="C65" t="s">
+        <v>377</v>
+      </c>
       <c r="D65" t="s">
         <v>334</v>
       </c>
@@ -2029,6 +2584,9 @@
       <c r="B66" t="s">
         <v>68</v>
       </c>
+      <c r="C66" t="s">
+        <v>378</v>
+      </c>
       <c r="D66" t="s">
         <v>335</v>
       </c>
@@ -2037,6 +2595,9 @@
       <c r="B67" t="s">
         <v>69</v>
       </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
       <c r="D67" t="s">
         <v>273</v>
       </c>
@@ -2045,6 +2606,9 @@
       <c r="B68" t="s">
         <v>70</v>
       </c>
+      <c r="C68" t="s">
+        <v>337</v>
+      </c>
       <c r="D68" t="s">
         <v>274</v>
       </c>
@@ -2053,6 +2617,9 @@
       <c r="B69" t="s">
         <v>71</v>
       </c>
+      <c r="C69" t="s">
+        <v>338</v>
+      </c>
       <c r="D69" t="s">
         <v>262</v>
       </c>
@@ -2061,6 +2628,9 @@
       <c r="B70" t="s">
         <v>76</v>
       </c>
+      <c r="C70" t="s">
+        <v>380</v>
+      </c>
       <c r="D70" t="s">
         <v>263</v>
       </c>
@@ -2069,6 +2639,9 @@
       <c r="B71" t="s">
         <v>72</v>
       </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
       <c r="D71" t="s">
         <v>87</v>
       </c>
@@ -2077,6 +2650,9 @@
       <c r="B72" t="s">
         <v>73</v>
       </c>
+      <c r="C72" t="s">
+        <v>381</v>
+      </c>
       <c r="D72" t="s">
         <v>88</v>
       </c>
@@ -2085,6 +2661,9 @@
       <c r="B73" t="s">
         <v>74</v>
       </c>
+      <c r="C73" t="s">
+        <v>260</v>
+      </c>
       <c r="D73" t="s">
         <v>89</v>
       </c>
@@ -2093,6 +2672,9 @@
       <c r="B74" t="s">
         <v>75</v>
       </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
       <c r="D74" t="s">
         <v>107</v>
       </c>
@@ -2101,6 +2683,9 @@
       <c r="B75" t="s">
         <v>77</v>
       </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
       <c r="D75" t="s">
         <v>108</v>
       </c>
@@ -2109,6 +2694,9 @@
       <c r="B76" t="s">
         <v>78</v>
       </c>
+      <c r="C76" t="s">
+        <v>258</v>
+      </c>
       <c r="D76" t="s">
         <v>109</v>
       </c>
@@ -2117,6 +2705,9 @@
       <c r="B77" t="s">
         <v>79</v>
       </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
       <c r="D77" t="s">
         <v>110</v>
       </c>
@@ -2125,6 +2716,9 @@
       <c r="B78" t="s">
         <v>80</v>
       </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
       <c r="D78" t="s">
         <v>111</v>
       </c>
@@ -2133,6 +2727,9 @@
       <c r="B79" t="s">
         <v>81</v>
       </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
       <c r="D79" t="s">
         <v>112</v>
       </c>
@@ -2141,6 +2738,9 @@
       <c r="B80" t="s">
         <v>82</v>
       </c>
+      <c r="C80" t="s">
+        <v>251</v>
+      </c>
       <c r="D80" t="s">
         <v>113</v>
       </c>
@@ -2149,6 +2749,9 @@
       <c r="B81" t="s">
         <v>83</v>
       </c>
+      <c r="C81" t="s">
+        <v>252</v>
+      </c>
       <c r="D81" t="s">
         <v>114</v>
       </c>
@@ -2157,6 +2760,9 @@
       <c r="B82" t="s">
         <v>84</v>
       </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
       <c r="D82" t="s">
         <v>115</v>
       </c>
@@ -2165,6 +2771,9 @@
       <c r="B83" t="s">
         <v>85</v>
       </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
       <c r="D83" t="s">
         <v>116</v>
       </c>
@@ -2173,6 +2782,9 @@
       <c r="B84" t="s">
         <v>86</v>
       </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
       <c r="D84" t="s">
         <v>90</v>
       </c>
@@ -2181,6 +2793,9 @@
       <c r="B85" t="s">
         <v>87</v>
       </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
       <c r="D85" t="s">
         <v>91</v>
       </c>
@@ -2189,6 +2804,9 @@
       <c r="B86" t="s">
         <v>88</v>
       </c>
+      <c r="C86" t="s">
+        <v>382</v>
+      </c>
       <c r="D86" t="s">
         <v>226</v>
       </c>
@@ -2197,6 +2815,9 @@
       <c r="B87" t="s">
         <v>89</v>
       </c>
+      <c r="C87" t="s">
+        <v>383</v>
+      </c>
       <c r="D87" t="s">
         <v>227</v>
       </c>
@@ -2205,6 +2826,9 @@
       <c r="B88" t="s">
         <v>90</v>
       </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
       <c r="D88" t="s">
         <v>284</v>
       </c>
@@ -2213,6 +2837,9 @@
       <c r="B89" t="s">
         <v>91</v>
       </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
       <c r="D89" t="s">
         <v>251</v>
       </c>
@@ -2221,6 +2848,9 @@
       <c r="B90" t="s">
         <v>92</v>
       </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
       <c r="D90" t="s">
         <v>252</v>
       </c>
@@ -2229,6 +2859,9 @@
       <c r="B91" t="s">
         <v>93</v>
       </c>
+      <c r="C91" t="s">
+        <v>384</v>
+      </c>
       <c r="D91" t="s">
         <v>336</v>
       </c>
@@ -2237,6 +2870,9 @@
       <c r="B92" t="s">
         <v>94</v>
       </c>
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
       <c r="D92" t="s">
         <v>337</v>
       </c>
@@ -2245,6 +2881,9 @@
       <c r="B93" t="s">
         <v>95</v>
       </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
       <c r="D93" t="s">
         <v>338</v>
       </c>
@@ -2253,6 +2892,9 @@
       <c r="B94" t="s">
         <v>96</v>
       </c>
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
       <c r="D94" t="s">
         <v>339</v>
       </c>
@@ -2261,6 +2903,9 @@
       <c r="B95" t="s">
         <v>97</v>
       </c>
+      <c r="C95" t="s">
+        <v>386</v>
+      </c>
       <c r="D95" t="s">
         <v>340</v>
       </c>
@@ -2269,6 +2914,9 @@
       <c r="B96" t="s">
         <v>98</v>
       </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
       <c r="D96" t="s">
         <v>341</v>
       </c>
@@ -2277,1365 +2925,2304 @@
       <c r="B97" t="s">
         <v>99</v>
       </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
       <c r="D97" t="s">
-        <v>220</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>100</v>
       </c>
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>101</v>
       </c>
+      <c r="C99" t="s">
+        <v>387</v>
+      </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>102</v>
       </c>
+      <c r="C100" t="s">
+        <v>97</v>
+      </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>103</v>
       </c>
+      <c r="C101" t="s">
+        <v>98</v>
+      </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>104</v>
       </c>
+      <c r="C102" t="s">
+        <v>264</v>
+      </c>
       <c r="D102" t="s">
-        <v>342</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>105</v>
       </c>
+      <c r="C103" t="s">
+        <v>265</v>
+      </c>
       <c r="D103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>106</v>
       </c>
+      <c r="C104" t="s">
+        <v>266</v>
+      </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>107</v>
       </c>
+      <c r="C105" t="s">
+        <v>231</v>
+      </c>
       <c r="D105" t="s">
-        <v>344</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>108</v>
       </c>
+      <c r="C106" t="s">
+        <v>232</v>
+      </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>109</v>
       </c>
+      <c r="C107" t="s">
+        <v>154</v>
+      </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>110</v>
       </c>
+      <c r="C108" t="s">
+        <v>155</v>
+      </c>
       <c r="D108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>111</v>
       </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
       <c r="D109" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>112</v>
       </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>113</v>
       </c>
+      <c r="C111" t="s">
+        <v>388</v>
+      </c>
       <c r="D111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>114</v>
       </c>
+      <c r="C112" t="s">
+        <v>389</v>
+      </c>
       <c r="D112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>115</v>
       </c>
+      <c r="C113" t="s">
+        <v>150</v>
+      </c>
       <c r="D113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>116</v>
       </c>
+      <c r="C114" t="s">
+        <v>151</v>
+      </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>117</v>
       </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
       <c r="D115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>118</v>
       </c>
+      <c r="C116" t="s">
+        <v>107</v>
+      </c>
       <c r="D116" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>119</v>
       </c>
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>120</v>
       </c>
+      <c r="C118" t="s">
+        <v>109</v>
+      </c>
       <c r="D118" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>121</v>
       </c>
+      <c r="C119" t="s">
+        <v>110</v>
+      </c>
       <c r="D119" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>122</v>
       </c>
+      <c r="C120" t="s">
+        <v>390</v>
+      </c>
       <c r="D120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>123</v>
       </c>
+      <c r="C121" t="s">
+        <v>112</v>
+      </c>
       <c r="D121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>124</v>
       </c>
+      <c r="C122" t="s">
+        <v>391</v>
+      </c>
       <c r="D122" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>125</v>
       </c>
+      <c r="C123" t="s">
+        <v>114</v>
+      </c>
       <c r="D123" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>126</v>
       </c>
+      <c r="C124" t="s">
+        <v>115</v>
+      </c>
       <c r="D124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>127</v>
       </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
       <c r="D125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>128</v>
       </c>
+      <c r="C126" t="s">
+        <v>186</v>
+      </c>
       <c r="D126" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>129</v>
       </c>
+      <c r="C127" t="s">
+        <v>335</v>
+      </c>
       <c r="D127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>130</v>
       </c>
+      <c r="C128" t="s">
+        <v>243</v>
+      </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>131</v>
       </c>
+      <c r="C129" t="s">
+        <v>244</v>
+      </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>132</v>
       </c>
+      <c r="C130" t="s">
+        <v>392</v>
+      </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>133</v>
       </c>
+      <c r="C131" t="s">
+        <v>393</v>
+      </c>
       <c r="D131" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>134</v>
       </c>
+      <c r="C132" t="s">
+        <v>189</v>
+      </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>135</v>
       </c>
+      <c r="C133" t="s">
+        <v>190</v>
+      </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>136</v>
       </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
       <c r="D134" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>137</v>
       </c>
+      <c r="C135" t="s">
+        <v>223</v>
+      </c>
       <c r="D135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>138</v>
       </c>
+      <c r="C136" t="s">
+        <v>224</v>
+      </c>
       <c r="D136" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>139</v>
       </c>
+      <c r="C137" t="s">
+        <v>225</v>
+      </c>
       <c r="D137" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>140</v>
       </c>
+      <c r="C138" t="s">
+        <v>74</v>
+      </c>
       <c r="D138" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>141</v>
       </c>
+      <c r="C139" t="s">
+        <v>75</v>
+      </c>
       <c r="D139" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>142</v>
       </c>
+      <c r="C140" t="s">
+        <v>219</v>
+      </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>143</v>
       </c>
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
       <c r="D141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>145</v>
       </c>
+      <c r="C142" t="s">
+        <v>395</v>
+      </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>144</v>
       </c>
+      <c r="C143" t="s">
+        <v>396</v>
+      </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>146</v>
       </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>147</v>
       </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>148</v>
       </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
       <c r="D146" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>149</v>
       </c>
+      <c r="C147" t="s">
+        <v>119</v>
+      </c>
       <c r="D147" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>150</v>
       </c>
+      <c r="C148" t="s">
+        <v>120</v>
+      </c>
       <c r="D148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>151</v>
       </c>
+      <c r="C149" t="s">
+        <v>247</v>
+      </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>152</v>
       </c>
+      <c r="C150" t="s">
+        <v>248</v>
+      </c>
       <c r="D150" t="s">
-        <v>357</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>153</v>
       </c>
+      <c r="C151" t="s">
+        <v>249</v>
+      </c>
       <c r="D151" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>154</v>
       </c>
+      <c r="C152" t="s">
+        <v>250</v>
+      </c>
       <c r="D152" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>155</v>
       </c>
+      <c r="C153" t="s">
+        <v>397</v>
+      </c>
       <c r="D153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>156</v>
       </c>
+      <c r="C154" t="s">
+        <v>398</v>
+      </c>
       <c r="D154" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>157</v>
       </c>
+      <c r="C155" t="s">
+        <v>399</v>
+      </c>
       <c r="D155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>158</v>
       </c>
+      <c r="C156" t="s">
+        <v>400</v>
+      </c>
       <c r="D156" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>206</v>
       </c>
+      <c r="C157" t="s">
+        <v>401</v>
+      </c>
       <c r="D157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>159</v>
       </c>
+      <c r="C158" t="s">
+        <v>402</v>
+      </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>160</v>
       </c>
+      <c r="C159" t="s">
+        <v>121</v>
+      </c>
       <c r="D159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>161</v>
       </c>
+      <c r="C160" t="s">
+        <v>122</v>
+      </c>
       <c r="D160" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>162</v>
       </c>
+      <c r="C161" t="s">
+        <v>262</v>
+      </c>
       <c r="D161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>163</v>
       </c>
+      <c r="C162" t="s">
+        <v>263</v>
+      </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>164</v>
       </c>
+      <c r="C163" t="s">
+        <v>222</v>
+      </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>165</v>
       </c>
+      <c r="C164" t="s">
+        <v>403</v>
+      </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>166</v>
       </c>
+      <c r="C165" t="s">
+        <v>404</v>
+      </c>
       <c r="D165" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>167</v>
       </c>
+      <c r="C166" t="s">
+        <v>127</v>
+      </c>
       <c r="D166" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>168</v>
       </c>
+      <c r="C167" t="s">
+        <v>128</v>
+      </c>
       <c r="D167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>169</v>
       </c>
+      <c r="C168" t="s">
+        <v>129</v>
+      </c>
       <c r="D168" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>170</v>
       </c>
+      <c r="C169" t="s">
+        <v>405</v>
+      </c>
       <c r="D169" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>171</v>
       </c>
+      <c r="C170" t="s">
+        <v>406</v>
+      </c>
       <c r="D170" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>172</v>
       </c>
+      <c r="C171" t="s">
+        <v>407</v>
+      </c>
       <c r="D171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>173</v>
       </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
       <c r="D172" t="s">
-        <v>360</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>174</v>
       </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>175</v>
       </c>
+      <c r="C174" t="s">
+        <v>35</v>
+      </c>
       <c r="D174" t="s">
-        <v>188</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>176</v>
       </c>
+      <c r="C175" t="s">
+        <v>36</v>
+      </c>
       <c r="D175" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>177</v>
       </c>
+      <c r="C176" t="s">
+        <v>37</v>
+      </c>
       <c r="D176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>178</v>
       </c>
+      <c r="C177" t="s">
+        <v>38</v>
+      </c>
       <c r="D177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>179</v>
       </c>
+      <c r="C178" t="s">
+        <v>39</v>
+      </c>
       <c r="D178" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>180</v>
       </c>
+      <c r="C179" t="s">
+        <v>40</v>
+      </c>
       <c r="D179" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>181</v>
       </c>
+      <c r="C180" t="s">
+        <v>41</v>
+      </c>
       <c r="D180" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>182</v>
       </c>
+      <c r="C181" t="s">
+        <v>204</v>
+      </c>
       <c r="D181" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>183</v>
       </c>
+      <c r="C182" t="s">
+        <v>205</v>
+      </c>
+      <c r="D182" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>184</v>
       </c>
+      <c r="C183" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>185</v>
       </c>
+      <c r="C184" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>186</v>
       </c>
+      <c r="C185" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>187</v>
       </c>
+      <c r="C186" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>188</v>
       </c>
+      <c r="C187" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>189</v>
       </c>
+      <c r="C188" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>190</v>
       </c>
+      <c r="C189" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>191</v>
       </c>
+      <c r="C190" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>192</v>
       </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>315</v>
+      </c>
+      <c r="C318" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Regional Dex Organizer.xlsx
+++ b/Data Input Sheets/Regional Dex Organizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="939" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B5B700D5-4FA9-45BA-AB97-BCCDD1B5742D}"/>
+  <xr:revisionPtr revIDLastSave="943" documentId="B5619266AF5CC9CEDB7BABFCAE5BD228568EF2BA" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{0172232F-0CAA-4478-AC17-5F69B413B594}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{C385F4AC-223B-4C41-885D-86253120A5C2}"/>
   </bookViews>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472BF42-91E4-4AAA-87AC-3A048804E40E}">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2295,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
@@ -2317,7 +2317,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42" t="s">
@@ -2328,7 +2328,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C43" t="s">
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
@@ -2372,7 +2372,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C47" t="s">
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">
@@ -2394,7 +2394,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C49" t="s">
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C50" t="s">
@@ -2416,7 +2416,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C51" t="s">
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C52" t="s">
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C55" t="s">
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C56" t="s">
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C58" t="s">
@@ -2504,7 +2504,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C61" t="s">
@@ -2537,7 +2537,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C62" t="s">
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C63" t="s">
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C65" t="s">
@@ -2581,7 +2581,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C66" t="s">
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
@@ -2603,7 +2603,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C68" t="s">
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C70" t="s">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
@@ -2647,7 +2647,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
@@ -2669,7 +2669,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C76" t="s">
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C77" t="s">
@@ -2713,7 +2713,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="s">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C79" t="s">
@@ -2735,7 +2735,7 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C80" t="s">
@@ -2746,7 +2746,7 @@
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C81" t="s">
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C82" t="s">
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C83" t="s">
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C84" t="s">
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C85" t="s">
@@ -2801,7 +2801,7 @@
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C86" t="s">
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C87" t="s">
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C88" t="s">
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C89" t="s">
@@ -2845,7 +2845,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C90" t="s">
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C91" t="s">
@@ -2867,7 +2867,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C92" t="s">
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C93" t="s">
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C94" t="s">
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C95" t="s">
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C96" t="s">
@@ -2922,7 +2922,7 @@
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C97" t="s">
@@ -2933,7 +2933,7 @@
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C98" t="s">
@@ -2944,7 +2944,7 @@
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C99" t="s">
